--- a/results/points_pretest.xlsx
+++ b/results/points_pretest.xlsx
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -720,7 +720,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -786,7 +786,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -797,7 +797,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -808,7 +808,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -819,7 +819,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -830,7 +830,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -841,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -852,7 +852,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -874,7 +874,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3">

--- a/results/points_pretest.xlsx
+++ b/results/points_pretest.xlsx
@@ -22,7 +22,7 @@
     <t>Points</t>
   </si>
   <si>
-    <t xml:space="preserve">1nUSüa </t>
+    <t>1nUSüa</t>
   </si>
   <si>
     <t>2rRLeh</t>
